--- a/Documentation/Template_Encuesta_de_Comedor.xlsx
+++ b/Documentation/Template_Encuesta_de_Comedor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t xml:space="preserve">Marca temporal</t>
   </si>
@@ -28,148 +28,148 @@
     <t xml:space="preserve">Nombre Completo</t>
   </si>
   <si>
-    <t xml:space="preserve">Jueves 09 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunes 13 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martes 14 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miercoles 15 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jueves 16 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunes 20 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martes 21 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miercoles 22 de noviembre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jueves 23 de noviembre</t>
+    <t xml:space="preserve">Lunes 25 de diciembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martes 26 de diciembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miercoles 27 de diciembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueves 28 de diciembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunes 1 de enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martes 2 de enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miercoles 3 de enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jueves 4 de enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugerencias</t>
   </si>
   <si>
     <t xml:space="preserve">Victor Abad Rojas Cruz</t>
   </si>
   <si>
+    <t xml:space="preserve">Guiso1 (Pizza de boneless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Rollos primavera)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Calabazas rellenas de atun gratinadas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Tacos de cabeza)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Empanadas de res)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Torta de cochinita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Pollo oriental)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Pollo con chorizo a la mexicana)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Raul Flores Carballo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Nachos con carne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Carne en chile colorado res)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Ensalada de pollo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Tacos de barbacoa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (cocido de res)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Tiras de pescado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Estofado de res en cubo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Chamorro en chile colorado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Ramon Dominguez Barba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gusio3 (Chapata con pechuga BBQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Albondigas al chipotle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Tacos discada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (dedos de pescado empanizados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Bisteq salsa tatemada)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Canelones con jamon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Muslo horneado BBQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josue Alejandro Olivas Mendez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinthya Jeanneth Ortega Beltran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hetson Gael Bevington Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Eugenia Quiroz Félix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso3 (Chiles rellenos con queso)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Dedos de pescado empanizado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nataniel Marcial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Pollo teriyaki)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Carne en chile colorado en res)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso1 (Cocido de Res)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiso2 (Estofado de Res en cubos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Alejandro Chavira Felix</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guiso1 (Res con brocoli)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Rollos primavera)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Calabazas rellenas de atun gratinadas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Tacos de cabeza)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Empanadas de res)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Torta de cochinita)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Pollo oriental)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Pollo con chorizo a la mexicana)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Raul Flores Carballo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Pollo teriyaki)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Carne en chile colorado res)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Ensalada de pollo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Tacos de barbacoa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (cocido de res)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Tiras de pescado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Estofado de res en cubo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Chamorro en chile colorado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Ramon Dominguez Barba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Chiles rellenos con queso)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gusio3 (Chapata con pechuga BBQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Albondigas al chipotle)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Tacos discada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (dedos de pescado empanizados)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Bisteq salsa tatemada)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Canelones con jamon)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Muslo horneado BBQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josue Alejandro Olivas Mendez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinthya Jeanneth Ortega Beltran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hetson Gael Bevington Acosta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Eugenia Quiroz Félix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Dedos de pescado empanizado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nataniel Marcial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Carne en chile colorado en res)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso1 (Cocido de Res)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Estofado de Res en cubos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso2 (Chamorros en chile colorado)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Alejandro Chavira Felix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiso3 (Chapata con pechuga BBQ)</t>
   </si>
 </sst>
 </file>
@@ -312,14 +312,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.6"/>
@@ -398,9 +398,7 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
@@ -433,9 +431,7 @@
       <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -445,39 +441,37 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>43032.6626907292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -498,33 +492,31 @@
         <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>43032.6630792361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -538,22 +530,20 @@
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>43032.6637731482</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -562,10 +552,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>27</v>
@@ -573,19 +563,17 @@
       <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>43033.4627778125</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -594,20 +582,18 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -617,13 +603,13 @@
         <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -632,17 +618,15 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
@@ -652,10 +636,10 @@
         <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
@@ -664,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>42</v>
@@ -675,9 +659,7 @@
       <c r="J10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
